--- a/upload/paper_operation_system.xlsx
+++ b/upload/paper_operation_system.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90426FD0-74AD-4AE0-B305-852B637AF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF6980-3A53-4B2A-BA08-CBA9430920D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
   <si>
     <t>正确答案</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>多选题</t>
   </si>
   <si>
     <t>问题描述</t>
@@ -219,24 +216,6 @@
     <t>以上都不是</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>填空题</t>
-  </si>
-  <si>
-    <t>下列关于操作系统的作用正确的是（ ）</t>
-  </si>
-  <si>
-    <t>作为用户与计算机硬件系统之间的接口</t>
-  </si>
-  <si>
-    <t>作为计算机系统资源的管理者</t>
-  </si>
-  <si>
-    <t>管理和控制用户的日常生活</t>
-  </si>
-  <si>
     <t>下列不属于操作系统目标的是（ ）</t>
   </si>
   <si>
@@ -423,18 +402,6 @@
     <t>进程只是一次抽象的活动</t>
   </si>
   <si>
-    <t>下列不是进程特征的是（ ）</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>动态性</t>
-  </si>
-  <si>
-    <t>独立性</t>
-  </si>
-  <si>
     <t>下列不是进程三个基本状态的是（ ）</t>
   </si>
   <si>
@@ -552,867 +519,14 @@
     <t>由“合作”进场唤醒</t>
   </si>
   <si>
-    <t>如果有三个进程共享同一互斥段，而且每次最多允许两个进程进入该互斥段，则信号量的初值应设置为（ ）</t>
-  </si>
-  <si>
-    <t>当线程处于阻塞状态时，线程（ ）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在占用处理机 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">没有占用处理机 </t>
-  </si>
-  <si>
-    <t>将进入执行状态</t>
-  </si>
-  <si>
-    <t>将进入结束状态</t>
-  </si>
-  <si>
-    <t>当多道程序系统中发生死锁时，（ ）</t>
-  </si>
-  <si>
-    <t>计算机系统不能处理任何事情</t>
-  </si>
-  <si>
-    <t>某个进程不能够执行</t>
-  </si>
-  <si>
-    <t>一组进程相互等待，并进入阻塞状态</t>
-  </si>
-  <si>
-    <t>不能进行输入和输出</t>
-  </si>
-  <si>
-    <t>在引入线程的操作系统中，下列关于线程的描述错误的是（ ）</t>
-  </si>
-  <si>
-    <t>线程是调度的基本单位</t>
-  </si>
-  <si>
-    <t>线程具有比进程更好的并发性</t>
-  </si>
-  <si>
-    <t>资源属于进程，线程仅拥有TCB等少量资源</t>
-  </si>
-  <si>
-    <t>线程拥有比进程更高的独立性</t>
-  </si>
-  <si>
-    <t>线程的开销比进程小</t>
-  </si>
-  <si>
-    <t>和进程相比，线程能更好地支持多处理机系统</t>
-  </si>
-  <si>
-    <t>在对记录型信号量的wait操作的定义中，当信号量的值（ ）时，执行wait操作的进程变为阻塞状态。</t>
-  </si>
-  <si>
-    <t>已知记录型信号量S，当前S.value的值为-5，下列选项错误的是（ ）</t>
-  </si>
-  <si>
-    <t>当前有5个进程获得资源S</t>
-  </si>
-  <si>
-    <t>当前有5个进程阻塞在资源S上</t>
-  </si>
-  <si>
-    <t>当前阻塞队列的长度为5</t>
-  </si>
-  <si>
-    <t>如果S是资源信号量，则表示当前系统缺少5个资源S</t>
-  </si>
-  <si>
-    <t>大于0</t>
-  </si>
-  <si>
-    <t>小于0</t>
-  </si>
-  <si>
-    <t>等于0</t>
-  </si>
-  <si>
-    <t>小于等于0</t>
-  </si>
-  <si>
-    <t>为实现两进程互斥，设置互斥信号量mutex，当mutex的值为0时，表示（ ）</t>
-  </si>
-  <si>
-    <t>没有进程进入临界区</t>
-  </si>
-  <si>
-    <t>有一个进程进入临界区</t>
-  </si>
-  <si>
-    <t>可能有一个进程阻塞</t>
-  </si>
-  <si>
-    <t>一个进程进入临界区，另一个进程阻塞</t>
-  </si>
-  <si>
-    <t>程序与进程的本质区别是（ ）</t>
-  </si>
-  <si>
-    <t>前者独占内存，后者共享内存</t>
-  </si>
-  <si>
-    <t>前者独占处理机，后者共享处理机</t>
-  </si>
-  <si>
-    <t>前者静态，后者动态</t>
-  </si>
-  <si>
-    <t>前者在多个文件中，后者在一个文件中</t>
-  </si>
-  <si>
-    <t>进程的哪种基本状态可以由其他两种基本状态转变而来（ ）</t>
-  </si>
-  <si>
-    <t>新建状态</t>
-  </si>
-  <si>
-    <t>在下列情况( )，系统需要进行进程调度。</t>
-  </si>
-  <si>
-    <t>某一进程正访问一临界资源</t>
-  </si>
-  <si>
-    <t>某一进程运行时因缺乏资源进入阻塞状态</t>
-  </si>
-  <si>
-    <t>某一进程处于运行状态，而另一进程处于自由状态</t>
-  </si>
-  <si>
-    <t>某一进程正在访问打印机，而另一进程处于就绪状态</t>
-  </si>
-  <si>
-    <t>（ ）进程调度算法适合多用户分时系统</t>
-  </si>
-  <si>
     <t>时间片轮转</t>
-  </si>
-  <si>
-    <t>内存动态分区管理中，最佳适应算法的空白区是( )</t>
-  </si>
-  <si>
-    <t>按大小递减顺序排列的</t>
-  </si>
-  <si>
-    <t>按大小递增顺序排列的</t>
-  </si>
-  <si>
-    <t>按地址由小到大排列的</t>
-  </si>
-  <si>
-    <t>按地址由大到小排列的</t>
-  </si>
-  <si>
-    <t>如果要使装入内存的程序在内存中移动后仍能正常运行，必须要有( )的支持</t>
-  </si>
-  <si>
-    <t>静态重定位</t>
-  </si>
-  <si>
-    <t>动态重定位</t>
-  </si>
-  <si>
-    <t>动态链接</t>
-  </si>
-  <si>
-    <t>静态链接</t>
-  </si>
-  <si>
-    <t>下列不会引起死锁的是（ ）</t>
-  </si>
-  <si>
-    <t>竞争不可抢占性资源</t>
-  </si>
-  <si>
-    <t>竞争可消耗性资源</t>
-  </si>
-  <si>
-    <t>进程推进顺序不当</t>
-  </si>
-  <si>
-    <t>采用抢占式调度算法</t>
-  </si>
-  <si>
-    <t>下列不是产生死锁的必要条件的是（ ）</t>
-  </si>
-  <si>
-    <t>互斥条件</t>
-  </si>
-  <si>
-    <t>请求和保持条件</t>
-  </si>
-  <si>
-    <t>可抢占条件</t>
-  </si>
-  <si>
-    <t>循环等待条件</t>
-  </si>
-  <si>
-    <t>下列不是处理死锁的方法的是（ ）</t>
-  </si>
-  <si>
-    <t>预防</t>
-  </si>
-  <si>
-    <t>避免</t>
-  </si>
-  <si>
-    <t>检测与解除</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>下列不能作为预防死锁措施的是（ ）</t>
-  </si>
-  <si>
-    <t>破坏“互斥”条件</t>
-  </si>
-  <si>
-    <t>破坏“请求和保持”条件</t>
-  </si>
-  <si>
-    <t>破坏“不可抢占”条件</t>
-  </si>
-  <si>
-    <t>破坏“循环等待”条件</t>
-  </si>
-  <si>
-    <t>已知三个作业J1、J2、J3同时到达，作业执行所需时间分别为T1、T2、T3，且T1&lt;T2&lt;T3，采用短作业优先调度算法，平均周转时间是（ ）</t>
-  </si>
-  <si>
-    <t>T1+T2+T3</t>
-  </si>
-  <si>
-    <t>(T1+T2+T3)/3</t>
-  </si>
-  <si>
-    <t>(3T1+2T2+T3)/3</t>
-  </si>
-  <si>
-    <t>3T1+2T2+T3</t>
-  </si>
-  <si>
-    <t>时间片轮转调度算法是为了（ ）</t>
-  </si>
-  <si>
-    <t>多个用户能及时干预系统</t>
-  </si>
-  <si>
-    <t>使系统变得高效</t>
-  </si>
-  <si>
-    <t>优先级较高的进程得到及时响应</t>
-  </si>
-  <si>
-    <t>需要CPU时间最少</t>
-  </si>
-  <si>
-    <t>下列可以解除死锁的方法是（ ）</t>
-  </si>
-  <si>
-    <t>执行并行操作</t>
-  </si>
-  <si>
-    <t>撒销进程或者剥夺资源</t>
-  </si>
-  <si>
-    <t>拒绝分配新资源</t>
-  </si>
-  <si>
-    <t>修改信号量</t>
-  </si>
-  <si>
-    <t>下列关于存储器的说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>CPU寄存器容量最小，速度最快</t>
-  </si>
-  <si>
-    <t>高速缓存和磁盘缓存实际上都是主存中的一个区域</t>
-  </si>
-  <si>
-    <t>寄存器和主存储器都是CPU所能访问到的，又称可执行存储器</t>
-  </si>
-  <si>
-    <t>高速缓存用于备份CPU最近访问的内存数据，以减少CPU访问内存的次数</t>
-  </si>
-  <si>
-    <t>磁盘缓存用于暂存主存与磁盘的交互数据，以缓和高速主存与低速磁盘之间的矛盾</t>
-  </si>
-  <si>
-    <t>下列关于重定位的说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>重定位是指在装入目标程序时将指令和数据的逻辑地址变换为实际物理地址的过程</t>
-  </si>
-  <si>
-    <t>程序绝对装入时不需要进行重定位操作</t>
-  </si>
-  <si>
-    <t>目标程序静态重定位后，系统可以在必要时进行内存紧凑操作，以获取更大的空闲区</t>
-  </si>
-  <si>
-    <t>动态重定位方式下，目标程序在装入时并不进行重定位操作，只在指令执行时才临时进行地址变换</t>
-  </si>
-  <si>
-    <t>下列关于动态分区分配算法，说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>首次适应算法每次分配空间时都从表（链）首开始查找，操作集中在低地址段，容易在低地址段形成碎片并增加系统开销</t>
-  </si>
-  <si>
-    <t>循环首次适应算法每次分配空间时都从当前位置开始查找，操作均匀分散，缺点是容易导致缺乏大的空闲区</t>
-  </si>
-  <si>
-    <t>最佳适应算法每次把最小的可分配空闲分区分配给进程，因此效率最高，不易形成碎片</t>
-  </si>
-  <si>
-    <t>最坏适应算法每次选择最大的空闲分区分配给进程，不易形成碎片</t>
-  </si>
-  <si>
-    <t>下列不是离散分配方式的是（ ）</t>
-  </si>
-  <si>
-    <t>动态分区分配方式</t>
-  </si>
-  <si>
-    <t>分页存储管理方式</t>
-  </si>
-  <si>
-    <t>分段存储管理方式</t>
-  </si>
-  <si>
-    <t>段页式存储管理方式</t>
-  </si>
-  <si>
-    <t>段页式管理中，地址转换表是（ ）</t>
-  </si>
-  <si>
-    <t>每个进程的每个段一张段表，一张页表</t>
-  </si>
-  <si>
-    <t>每个进程一张段表，一张页表</t>
-  </si>
-  <si>
-    <t>每个进程一张段表，每个段一张页表</t>
-  </si>
-  <si>
-    <t>每个进程一张页表，每个页一张段表</t>
-  </si>
-  <si>
-    <t>（ ）存储管理方式能使内存碎片尽可能少，避免内存的整理</t>
-  </si>
-  <si>
-    <t>固定分区</t>
-  </si>
-  <si>
-    <t>可变分区</t>
-  </si>
-  <si>
-    <t>分页管理</t>
-  </si>
-  <si>
-    <t>段式管理</t>
-  </si>
-  <si>
-    <t>采用（ ）不会产生内部碎片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分页式存储管理 </t>
-  </si>
-  <si>
-    <t>分段式存储管理</t>
-  </si>
-  <si>
-    <t>固定分区式存储管理</t>
-  </si>
-  <si>
-    <t>段页式存储管理</t>
-  </si>
-  <si>
-    <t>页式虚拟存储管理的主要特点是(      )</t>
-  </si>
-  <si>
-    <t>不要求将作业装入到主存的连续区域</t>
-  </si>
-  <si>
-    <t>不要求进行缺页中断处理</t>
-  </si>
-  <si>
-    <t>不要求将作业同时全部装入到主存的连续区域</t>
-  </si>
-  <si>
-    <t>不要求进行页面置换</t>
-  </si>
-  <si>
-    <t>某请求分页系统采用改进的clock页面置换算法，有作业在内存中有四个页面，第一至第四个页面的（访问位，修改位）的值依次为（1,0），（1,1），（0,1），（0,0），若进行页面置换，则被淘汰的页面是（ ）</t>
-  </si>
-  <si>
-    <t>第一个页面</t>
-  </si>
-  <si>
-    <t>第二个页面</t>
-  </si>
-  <si>
-    <t>第三个页面</t>
-  </si>
-  <si>
-    <t>第四个页面</t>
-  </si>
-  <si>
-    <t>已知请求分页系统中，处理器访问一次内存的时间为t，访问一次快表的时间为v，缺页中断处理时间为w，若页面不在内存，则处理器访问一次逻辑地址所需时间为（ ）</t>
-  </si>
-  <si>
-    <t>t+v+w</t>
-  </si>
-  <si>
-    <t>2(t+v)</t>
-  </si>
-  <si>
-    <t>2(t+v)+w</t>
-  </si>
-  <si>
-    <t>2(t+v+w)</t>
-  </si>
-  <si>
-    <t>在请求分段系统的地址变换过程中，下列说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>虚地址段号大于段表长度时，产生越界中断</t>
-  </si>
-  <si>
-    <t>虚地址段内偏移量大于段表长度时，产生越界中断</t>
-  </si>
-  <si>
-    <t>虚段不在内存时，产生缺段中断</t>
-  </si>
-  <si>
-    <t>存取方式不合时，触发保护中断</t>
-  </si>
-  <si>
-    <t>在请求页式存储管理中，若所需页面不在内存中，则会引起（ ）</t>
-  </si>
-  <si>
-    <t>输入输出中断</t>
-  </si>
-  <si>
-    <t>缺段中断</t>
-  </si>
-  <si>
-    <t>越界中断</t>
-  </si>
-  <si>
-    <t>缺页中断</t>
-  </si>
-  <si>
-    <t>缺页中断发生在（ ）</t>
-  </si>
-  <si>
-    <t>进程切换时</t>
-  </si>
-  <si>
-    <t>一条指令的执行期间</t>
-  </si>
-  <si>
-    <t>执行原语操作后</t>
-  </si>
-  <si>
-    <t>执行原语操作之后</t>
-  </si>
-  <si>
-    <t>请求分段系统在分段系统的基础上，增加了（ ）及分段置换软件功能</t>
-  </si>
-  <si>
-    <t>请求调段</t>
-  </si>
-  <si>
-    <t>段表</t>
-  </si>
-  <si>
-    <t>地址变换</t>
-  </si>
-  <si>
-    <t>程序与程序</t>
-  </si>
-  <si>
-    <t>处理机的操作与通道的操作</t>
-  </si>
-  <si>
-    <t>主程序与子程序</t>
-  </si>
-  <si>
-    <t>用户程序与操作系统程序</t>
-  </si>
-  <si>
-    <t>引入缓冲可以（ ）</t>
-  </si>
-  <si>
-    <t>在单处理机计算机系统中，（ ）是可以并行操作的</t>
-  </si>
-  <si>
-    <t>改善用户编程环境</t>
-  </si>
-  <si>
-    <t>提高CPU的处理速度</t>
-  </si>
-  <si>
-    <t>提高CPU与设备之间的并行程度</t>
-  </si>
-  <si>
-    <t>降低计算机的硬件成本</t>
-  </si>
-  <si>
-    <t>与设备控制器关系最密切的软件是（ ）</t>
-  </si>
-  <si>
-    <t>设备驱动程序</t>
-  </si>
-  <si>
-    <t>编译程序</t>
-  </si>
-  <si>
-    <t>存储管理程序</t>
-  </si>
-  <si>
-    <t>处理机管理</t>
-  </si>
-  <si>
-    <t>I/O系统分层，下列从下到上排列正确的是（ ）</t>
-  </si>
-  <si>
-    <t>硬件、中断处理程序、设备处理程序、设备独立性软件、用户层软件</t>
-  </si>
-  <si>
-    <t>硬件、设备处理程序、中断处理程序、设备独立性软件、用户层软件</t>
-  </si>
-  <si>
-    <t>硬件、中断处理程序、设备独立性软件、设备处理程序、用户层软件</t>
-  </si>
-  <si>
-    <t>硬件、设备独立性软件、中断处理程序、设备处理程序、用户层软件</t>
-  </si>
-  <si>
-    <t>下列关于设备控制器的描述错误的是（ ）</t>
-  </si>
-  <si>
-    <t>在下面的I/O控制方式中，需要CPU干预最少的方式是（ ）</t>
-  </si>
-  <si>
-    <t>程序I/O方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中断驱动I/O控制方式 </t>
-  </si>
-  <si>
-    <t>直接存储器访问(DMA)控制方式</t>
-  </si>
-  <si>
-    <t>I/O通道控制方式</t>
-  </si>
-  <si>
-    <t>每个设备控制器只能控制一个设备</t>
-  </si>
-  <si>
-    <t>设备控制器是设备与CPU之间的接口</t>
-  </si>
-  <si>
-    <t>设备控制器可以分为流设备控制器和块设备控制器</t>
-  </si>
-  <si>
-    <t>设备在设备控制器的控制下工作</t>
-  </si>
-  <si>
-    <t>下列关于中断的说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>外中断是指由外部设备引起的中断</t>
-  </si>
-  <si>
-    <t>由CPU内部事件引发的中断称为内中断，也叫陷入</t>
-  </si>
-  <si>
-    <t>CPU在每个指令周期结束时检测并响应外部设备发来的中断</t>
-  </si>
-  <si>
-    <t>地址越界、非法指令引发的中断是外部中断</t>
-  </si>
-  <si>
-    <t>中断处理程序的处理过程正确的是（ ）
-①检测是否有未响应的中断信号 ②保护被中断进程的CPU环境 ③转入相应的设备处理程序 ④中断处理 ⑤恢复CPU现场并退出中断</t>
-  </si>
-  <si>
-    <t>①②④③⑤</t>
-  </si>
-  <si>
-    <t>①②⑤③④</t>
-  </si>
-  <si>
-    <t>①②③④⑤</t>
-  </si>
-  <si>
-    <t>下面关于I/O控制方式的说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>轮询的可编程I/O方式，采用忙等方式，处理机利用率极低</t>
-  </si>
-  <si>
-    <t>中断的可编程I/O方式，以字节为单位向处理器发出中断，处理器利用率低</t>
-  </si>
-  <si>
-    <t>直接存储器访问方式（DMA），以块为单位干预处理器</t>
-  </si>
-  <si>
-    <t>I/O通道控制方式，能独立完成全部I/O请求，不对处理器产生任何干预</t>
-  </si>
-  <si>
-    <t>下列关于缓冲区的说法错误的是（ ）</t>
-  </si>
-  <si>
-    <t>缓冲区是磁盘中的一块区域</t>
-  </si>
-  <si>
-    <t>单缓冲区、双缓冲区和循环缓冲区属于专用缓冲</t>
-  </si>
-  <si>
-    <t>缓冲池是由系统对多个缓冲区进行统一管理的一种机制</t>
-  </si>
-  <si>
-    <t>共用缓冲池比专用缓冲区具有更高的空间利用率</t>
-  </si>
-  <si>
-    <t>下列关于磁盘的描述错误的是（ ）</t>
-  </si>
-  <si>
-    <t>磁盘是用于长期存放数据的存储设备</t>
-  </si>
-  <si>
-    <t>磁盘是I/O设备</t>
-  </si>
-  <si>
-    <t>磁盘在使用前必须经过低级格式化、分区和高级格式化处理</t>
-  </si>
-  <si>
-    <t>磁盘是高速字符设备</t>
-  </si>
-  <si>
-    <t>系统为某次数据处理过程设置一个双缓冲区，已知输入设备将一个数据块输入到缓冲区的时间为T，将数据块从缓冲区传送到进程工作区的时间为M，处理机计算一个数据块的时间为C，则系统处理完一个数据块的时间为（ ）</t>
-  </si>
-  <si>
-    <t>MAX(C,T+M)</t>
-  </si>
-  <si>
-    <t>MAX(C,M+T)</t>
-  </si>
-  <si>
-    <t>MAX(M,T+C)</t>
-  </si>
-  <si>
-    <t>MAX(M+C,T)</t>
-  </si>
-  <si>
-    <t>关于I/O控制方式，（ ）控制方式使对I/O操作的组织和数据的传送能最大限度地独立运行而无需处理机的干预</t>
-  </si>
-  <si>
-    <t>I/O通道</t>
-  </si>
-  <si>
-    <t>中断驱动I/O</t>
-  </si>
-  <si>
-    <t>程序I/O</t>
-  </si>
-  <si>
-    <t>直接存储器访问I/O</t>
-  </si>
-  <si>
-    <t>操作系统实现按名存取的关键在于解决（ ）</t>
-  </si>
-  <si>
-    <t>文件逻辑地址到文件具体的存储地址的转换</t>
-  </si>
-  <si>
-    <t>文件的符号名与文件具体的存储地址的转换和映射</t>
-  </si>
-  <si>
-    <t>文件逻辑结构到文件名称转换</t>
-  </si>
-  <si>
-    <t>文件名称到文件逻辑地址的转换</t>
-  </si>
-  <si>
-    <t>下列关于文件结构的描述错误的是（ ）</t>
-  </si>
-  <si>
-    <t>文件的逻辑结构是指用在户视角下逻辑记录如何构成一个逻辑文件，又称文件组织</t>
-  </si>
-  <si>
-    <t>文件的物理结构是指文件在外存上的组织方式，也叫存储结构</t>
-  </si>
-  <si>
-    <t>文件的物理结构与存储结构的性能有关，也与外存的分配方式有关</t>
-  </si>
-  <si>
-    <t>文件的物理结构会影响文件记录的检索速度，但逻辑结构不会</t>
-  </si>
-  <si>
-    <t>文件系统对文件进行描述和控制管理的数据结构是（ ）</t>
-  </si>
-  <si>
-    <t>TCB</t>
-  </si>
-  <si>
-    <t>FCB</t>
-  </si>
-  <si>
-    <t>作业的操作分为若干作业步，一个典型作业操作通常分为三个作业步：（ ）</t>
-  </si>
-  <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>编译</t>
-  </si>
-  <si>
-    <t>链接装配</t>
-  </si>
-  <si>
-    <t>运行</t>
-  </si>
-  <si>
-    <t>创建进程需要执行哪些操作：（）</t>
-  </si>
-  <si>
-    <t>申请空白PCB</t>
-  </si>
-  <si>
-    <t>为新进程分配资源</t>
-  </si>
-  <si>
-    <t>初始化PCB</t>
-  </si>
-  <si>
-    <t>将PCB插入队列</t>
-  </si>
-  <si>
-    <t>程序运行前需将装入模块装入内存，下列是程序装入方式的是（ ）</t>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
-    <t>绝对装入方式</t>
-  </si>
-  <si>
-    <t>相对装入方式</t>
-  </si>
-  <si>
-    <t>可重定位装入方式</t>
-  </si>
-  <si>
-    <t>动态运行时装入方式</t>
-  </si>
-  <si>
-    <t>把操作系统中更多的成分和功能放到更高的层次（即用户模式）中去运行，而留下一个尽量小的内核，用它来完成操作系统最基本的核心功能，称这种技术为（ ）</t>
-  </si>
-  <si>
-    <t>微内核技术</t>
-  </si>
-  <si>
-    <t>进程是程序的执行过程，是系统进行资源分配和调度的一个（ ）</t>
-  </si>
-  <si>
-    <t>独立单位</t>
-  </si>
-  <si>
-    <t>如果系统中有n个进程,则在CPU的就绪队列中进程的个数最多为（ ）个</t>
-  </si>
-  <si>
-    <t>n-1</t>
-  </si>
-  <si>
-    <t>在操作系统中,不可中断执行的操作称为（ ）</t>
-  </si>
-  <si>
-    <t>如果系统中的所有作业是同时到达的,则使作业平均周转时间最短的作业调度是（ ）</t>
-  </si>
-  <si>
-    <t>短作业优先算法</t>
-  </si>
-  <si>
-    <t>已知某多道批处理系统中有P1和P2两个作业，P2比P1晚10ms到达，两道作业的操作要求（顺序）如下
-P1：计算60ms，I/O操作80ms，计算20ms
-P2：计算120ms，I/O操作40ms，计算40ms
-若不考虑调度和切换时间，则完成两道作业需要的时间最少是（ ）ms</t>
-  </si>
-  <si>
-    <t>如果信号量的当前值为-4,则表示系统中在该信号量上有（ ）个等待进程</t>
-  </si>
-  <si>
-    <t>已知信号量S的初始值为5，在S上连续执行了9次wait操作后S 的值应该为（ ）</t>
-  </si>
-  <si>
-    <t>在9个生产者，5个消费者，共享容量为7的缓冲区的生产者-消费者问题中。互斥使用缓冲区的信号量S的初值为（ ）</t>
-  </si>
-  <si>
-    <t>系统中有4个进程都要使用某类资源。若每个进程最多需要3个该类资源，为保证系统不发生死锁，系统应提供该类资源至少是（ ）个</t>
-  </si>
-  <si>
-    <t>系统中有3个不同的临界资源R1，R2和R3，被4个进程P1，P2，P3，P4共享。各进程对资源的需求为：P1申请R1和R2，P2申请R2和R3，P3申请R1和R3，P4申请R2。若系统出现死锁，则至少有（ ）个进程处于死锁状态</t>
-  </si>
-  <si>
-    <t>不让死锁发生的策略可以分为静态策略和动态策略两种,死锁避免属于（ ）</t>
-  </si>
-  <si>
-    <t>动态策略</t>
-  </si>
-  <si>
-    <t>若使当前运行的进程总是优先级最高的进程,应选择（ ）进程调度算法</t>
-  </si>
-  <si>
-    <t>抢占式优先级</t>
-  </si>
-  <si>
-    <t>已知某分页系统中，页的大小为1K，则逻辑地址2170的页号是 2 ，页内偏移量是 122 ，经查页表得知其对应的物理快号为5，则A的物理地址应为（ ）</t>
-  </si>
-  <si>
-    <t>磁盘的转速为3000转/分钟，盘面划分成10个扇区，则读取一个扇区的时间为（ ）ms</t>
-  </si>
-  <si>
-    <t>已知文件F为一级索引顺序文件，含有1000000个记录，查找一个记录平均需要进行比较的次数约为（ ）次</t>
-  </si>
-  <si>
-    <t>有一个长度为3200个字节的流式文件要存储在磁盘上，磁盘的每个盘块可以存放512个字节，该文件至少需要（ ）个盘块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">某文件系统采用索引组织方式对文件F进行空间分配，已知磁盘的盘块大小为4K，盘块号占4B，只用一个盘块建立索引，则文件F最大为（ ） </t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>设有一个记录文件，采用链接分配方式，逻辑记录的固定长度为120B，盘块大小为512B。若该文件的目录项已经读入内存，则对第25个记录完成修改后，共启动磁盘（ ）次</t>
-  </si>
-  <si>
-    <t>文件目录是一种数据结构，用于标志系统中的文件及其物理地址，供（ ）使用</t>
-  </si>
-  <si>
-    <t>文件检索</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1458,12 +572,6 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1635,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,9 +790,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2877,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV287"/>
+  <dimension ref="A1:IV212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2894,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="241" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2914,10 +2019,10 @@
     </row>
     <row r="2" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2938,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="3"/>
@@ -2952,31 +2057,31 @@
     </row>
     <row r="3" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="13"/>
@@ -2988,7 +2093,7 @@
     </row>
     <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2997,22 +2102,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="3"/>
@@ -3024,28 +2129,28 @@
     </row>
     <row r="5" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3058,28 +2163,28 @@
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3092,7 +2197,7 @@
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -3101,19 +2206,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3126,28 +2231,28 @@
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3160,28 +2265,28 @@
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3194,28 +2299,28 @@
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3228,28 +2333,28 @@
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3262,7 +2367,7 @@
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -3271,19 +2376,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3296,28 +2401,28 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3330,28 +2435,28 @@
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3364,28 +2469,28 @@
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3398,7 +2503,7 @@
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -3407,19 +2512,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3432,28 +2537,28 @@
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3466,28 +2571,28 @@
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3500,28 +2605,28 @@
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -3534,7 +2639,7 @@
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -3543,19 +2648,19 @@
         <v>7</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3568,28 +2673,28 @@
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -3602,28 +2707,28 @@
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3635,30 +2740,14 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3</v>
-      </c>
-      <c r="G23" s="7">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3669,30 +2758,14 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3703,30 +2776,14 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3737,36 +2794,16 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3775,30 +2812,14 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3809,30 +2830,14 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>156</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3843,30 +2848,14 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3877,30 +2866,14 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3911,30 +2884,14 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>168</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3945,30 +2902,14 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3979,30 +2920,14 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -4013,30 +2938,14 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -4047,30 +2956,14 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -4081,30 +2974,14 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -4115,30 +2992,14 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -4149,30 +3010,14 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4183,30 +3028,14 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -4217,30 +3046,14 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4251,33 +3064,15 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -4287,30 +3082,14 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4321,30 +3100,14 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -4355,30 +3118,14 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4389,30 +3136,14 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4423,30 +3154,14 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4457,30 +3172,14 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4491,30 +3190,14 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4525,30 +3208,14 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4559,30 +3226,14 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>261</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4593,30 +3244,14 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4627,30 +3262,14 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4661,30 +3280,14 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4695,30 +3298,14 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4729,30 +3316,14 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4763,30 +3334,14 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4797,30 +3352,14 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>294</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4831,30 +3370,14 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>300</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -4865,30 +3388,14 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4899,30 +3406,14 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>310</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4933,30 +3424,14 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4967,30 +3442,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>305</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -5001,30 +3460,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>325</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -5035,30 +3478,14 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>329</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -5069,30 +3496,14 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -5103,30 +3514,14 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -5137,30 +3532,14 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -5171,30 +3550,14 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -5205,30 +3568,14 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>354</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -5239,30 +3586,14 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -5273,30 +3604,14 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -5307,30 +3622,14 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>367</v>
-      </c>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -5341,30 +3640,14 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -5375,30 +3658,14 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="6">
-        <v>2</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -5409,30 +3676,14 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D75" s="6">
-        <v>2</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -5443,30 +3694,14 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="6">
-        <v>2</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>378</v>
-      </c>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -5477,30 +3712,14 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>384</v>
-      </c>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5511,18 +3730,10 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D78" s="8">
-        <v>1</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -5537,18 +3748,10 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -5563,18 +3766,10 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5589,18 +3784,10 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -5615,18 +3802,10 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D82" s="8">
-        <v>1</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5641,18 +3820,10 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="7">
-        <v>260</v>
-      </c>
-      <c r="D83" s="8">
-        <v>1</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5667,18 +3838,10 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="7">
-        <v>4</v>
-      </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -5693,18 +3856,10 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="7">
-        <v>-4</v>
-      </c>
-      <c r="D85" s="8">
-        <v>1</v>
-      </c>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -5719,18 +3874,10 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1</v>
-      </c>
-      <c r="D86" s="8">
-        <v>1</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -5745,18 +3892,10 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="7">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8">
-        <v>1</v>
-      </c>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -5771,18 +3910,10 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="7">
-        <v>3</v>
-      </c>
-      <c r="D88" s="8">
-        <v>1</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -5797,18 +3928,10 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D89" s="8">
-        <v>1</v>
-      </c>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -5823,18 +3946,10 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D90" s="8">
-        <v>1</v>
-      </c>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5849,18 +3964,10 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="7">
-        <v>5242</v>
-      </c>
-      <c r="D91" s="8">
-        <v>1</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5875,18 +3982,10 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="7">
-        <v>2</v>
-      </c>
-      <c r="D92" s="8">
-        <v>1</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -5901,18 +4000,10 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D93" s="8">
-        <v>1</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -5927,18 +4018,10 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="7">
-        <v>7</v>
-      </c>
-      <c r="D94" s="8">
-        <v>1</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -5953,18 +4036,10 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -5979,18 +4054,10 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="7">
-        <v>7</v>
-      </c>
-      <c r="D96" s="8">
-        <v>1</v>
-      </c>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -6005,18 +4072,10 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D97" s="8">
-        <v>1</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -8093,1362 +6152,12 @@
       <c r="H212" s="7"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-    </row>
-    <row r="213" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="7"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-    </row>
-    <row r="214" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="7"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-    </row>
-    <row r="215" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="7"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-    </row>
-    <row r="216" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="7"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-    </row>
-    <row r="217" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="7"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-    </row>
-    <row r="218" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-    </row>
-    <row r="219" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-    </row>
-    <row r="220" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="7"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-    </row>
-    <row r="221" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="7"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-    </row>
-    <row r="222" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="7"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-    </row>
-    <row r="223" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="7"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-    </row>
-    <row r="224" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="7"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-    </row>
-    <row r="225" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="7"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-    </row>
-    <row r="226" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="7"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-    </row>
-    <row r="227" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="7"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-    </row>
-    <row r="228" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="7"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-    </row>
-    <row r="229" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="7"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-    </row>
-    <row r="230" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="7"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-    </row>
-    <row r="231" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="7"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-    </row>
-    <row r="232" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="7"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-    </row>
-    <row r="233" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-    </row>
-    <row r="234" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="7"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-    </row>
-    <row r="235" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="7"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-    </row>
-    <row r="236" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="7"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
-    </row>
-    <row r="237" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="7"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
-    </row>
-    <row r="238" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="7"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-      <c r="P238" s="3"/>
-    </row>
-    <row r="239" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="7"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
-      <c r="P239" s="3"/>
-    </row>
-    <row r="240" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="7"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-      <c r="P240" s="3"/>
-    </row>
-    <row r="241" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="7"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
-      <c r="P241" s="3"/>
-    </row>
-    <row r="242" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="7"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-      <c r="O242" s="3"/>
-      <c r="P242" s="3"/>
-    </row>
-    <row r="243" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="7"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
-    </row>
-    <row r="244" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="7"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="3"/>
-      <c r="P244" s="3"/>
-    </row>
-    <row r="245" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="7"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
-      <c r="P245" s="3"/>
-    </row>
-    <row r="246" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="7"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
-      <c r="P246" s="3"/>
-    </row>
-    <row r="247" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="7"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3"/>
-    </row>
-    <row r="248" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="7"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3"/>
-    </row>
-    <row r="249" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="7"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3"/>
-    </row>
-    <row r="250" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="7"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-      <c r="P250" s="3"/>
-    </row>
-    <row r="251" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="7"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3"/>
-    </row>
-    <row r="252" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="7"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-      <c r="O252" s="3"/>
-      <c r="P252" s="3"/>
-    </row>
-    <row r="253" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="7"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
-      <c r="P253" s="3"/>
-    </row>
-    <row r="254" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="7"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-    </row>
-    <row r="255" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="7"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
-      <c r="P255" s="3"/>
-    </row>
-    <row r="256" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="7"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="3"/>
-      <c r="P256" s="3"/>
-    </row>
-    <row r="257" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="7"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-      <c r="O257" s="3"/>
-      <c r="P257" s="3"/>
-    </row>
-    <row r="258" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="7"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
-      <c r="P258" s="3"/>
-    </row>
-    <row r="259" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="7"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-      <c r="O259" s="3"/>
-      <c r="P259" s="3"/>
-    </row>
-    <row r="260" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="7"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="7"/>
-      <c r="G260" s="7"/>
-      <c r="H260" s="7"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-      <c r="O260" s="3"/>
-      <c r="P260" s="3"/>
-    </row>
-    <row r="261" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="7"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
-      <c r="N261" s="3"/>
-      <c r="O261" s="3"/>
-      <c r="P261" s="3"/>
-    </row>
-    <row r="262" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="7"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="7"/>
-      <c r="H262" s="7"/>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
-      <c r="N262" s="3"/>
-      <c r="O262" s="3"/>
-      <c r="P262" s="3"/>
-    </row>
-    <row r="263" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="7"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
-      <c r="O263" s="3"/>
-      <c r="P263" s="3"/>
-    </row>
-    <row r="264" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="7"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="7"/>
-      <c r="G264" s="7"/>
-      <c r="H264" s="7"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
-      <c r="O264" s="3"/>
-      <c r="P264" s="3"/>
-    </row>
-    <row r="265" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="7"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-      <c r="O265" s="3"/>
-      <c r="P265" s="3"/>
-    </row>
-    <row r="266" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="7"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7"/>
-      <c r="H266" s="7"/>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
-      <c r="O266" s="3"/>
-      <c r="P266" s="3"/>
-    </row>
-    <row r="267" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="7"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="7"/>
-      <c r="G267" s="7"/>
-      <c r="H267" s="7"/>
-      <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
-      <c r="M267" s="3"/>
-      <c r="N267" s="3"/>
-      <c r="O267" s="3"/>
-      <c r="P267" s="3"/>
-    </row>
-    <row r="268" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="7"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="7"/>
-      <c r="H268" s="7"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-      <c r="L268" s="3"/>
-      <c r="M268" s="3"/>
-      <c r="N268" s="3"/>
-      <c r="O268" s="3"/>
-      <c r="P268" s="3"/>
-    </row>
-    <row r="269" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="7"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="7"/>
-      <c r="H269" s="7"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
-      <c r="N269" s="3"/>
-      <c r="O269" s="3"/>
-      <c r="P269" s="3"/>
-    </row>
-    <row r="270" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="7"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
-      <c r="N270" s="3"/>
-      <c r="O270" s="3"/>
-      <c r="P270" s="3"/>
-    </row>
-    <row r="271" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="7"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-      <c r="L271" s="3"/>
-      <c r="M271" s="3"/>
-      <c r="N271" s="3"/>
-      <c r="O271" s="3"/>
-      <c r="P271" s="3"/>
-    </row>
-    <row r="272" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="7"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3"/>
-      <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
-      <c r="O272" s="3"/>
-      <c r="P272" s="3"/>
-    </row>
-    <row r="273" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="7"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-      <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
-    </row>
-    <row r="274" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="7"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
-      <c r="O274" s="3"/>
-      <c r="P274" s="3"/>
-    </row>
-    <row r="275" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="7"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="7"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
-    </row>
-    <row r="276" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="7"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="7"/>
-      <c r="H276" s="7"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="O276" s="3"/>
-      <c r="P276" s="3"/>
-    </row>
-    <row r="277" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="7"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
-      <c r="N277" s="3"/>
-      <c r="O277" s="3"/>
-      <c r="P277" s="3"/>
-    </row>
-    <row r="278" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="7"/>
-      <c r="I278" s="3"/>
-      <c r="J278" s="3"/>
-      <c r="K278" s="3"/>
-      <c r="L278" s="3"/>
-      <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
-      <c r="O278" s="3"/>
-      <c r="P278" s="3"/>
-    </row>
-    <row r="279" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="7"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
-      <c r="O279" s="3"/>
-      <c r="P279" s="3"/>
-    </row>
-    <row r="280" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="7"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="7"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="7"/>
-      <c r="G280" s="7"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
-      <c r="P280" s="3"/>
-    </row>
-    <row r="281" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="7"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7"/>
-      <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
-      <c r="L281" s="3"/>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
-      <c r="O281" s="3"/>
-      <c r="P281" s="3"/>
-    </row>
-    <row r="282" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="7"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="7"/>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7"/>
-      <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
-      <c r="P282" s="3"/>
-    </row>
-    <row r="283" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="7"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-      <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
-    </row>
-    <row r="284" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="7"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-      <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
-      <c r="K284" s="3"/>
-      <c r="L284" s="3"/>
-      <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
-      <c r="O284" s="3"/>
-      <c r="P284" s="3"/>
-    </row>
-    <row r="285" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="7"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3"/>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
-      <c r="O285" s="3"/>
-      <c r="P285" s="3"/>
-    </row>
-    <row r="286" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="7"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="7"/>
-      <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
-      <c r="K286" s="3"/>
-      <c r="L286" s="3"/>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
-      <c r="O286" s="3"/>
-      <c r="P286" s="3"/>
-    </row>
-    <row r="287" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="7"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="7"/>
-      <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="9"/>
-      <c r="L287" s="10"/>
-      <c r="M287" s="10"/>
-      <c r="N287" s="10"/>
-      <c r="O287" s="10"/>
-      <c r="P287" s="10"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
